--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AR2_50_6_matched_errors_T55.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AR2_50_6_matched_errors_T55.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2020-07-01 00:00:00_diff</t>
@@ -455,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -512,25 +515,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.227302292717427</v>
+        <v>1.537235586080065</v>
       </c>
       <c r="C3">
-        <v>-14.30507732890006</v>
+        <v>9.392532175304375</v>
       </c>
       <c r="D3">
-        <v>-4.917177413464427</v>
+        <v>-8.530422531353118</v>
       </c>
       <c r="E3">
-        <v>-1.819221578597504</v>
+        <v>-0.2751194525324077</v>
       </c>
       <c r="F3">
-        <v>-4.535638736670638</v>
+        <v>1.93130625003464</v>
       </c>
       <c r="G3">
-        <v>-4.045861956105766</v>
+        <v>-1.479553567856255</v>
       </c>
       <c r="H3">
-        <v>-1.58491807464721</v>
+        <v>-1.526157184940621</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -538,25 +541,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>-12.62489618233083</v>
+        <v>2.227302292717427</v>
       </c>
       <c r="C4">
-        <v>2.498867349044278</v>
+        <v>-14.30507732890006</v>
       </c>
       <c r="D4">
-        <v>0.4288347376275889</v>
+        <v>-4.917177413464427</v>
       </c>
       <c r="E4">
-        <v>-0.554277721481464</v>
+        <v>-1.819221578597504</v>
       </c>
       <c r="F4">
-        <v>-2.067680054195791</v>
+        <v>-4.535638736670638</v>
       </c>
       <c r="G4">
-        <v>0.8270881714231106</v>
+        <v>-4.045861956105766</v>
       </c>
       <c r="H4">
-        <v>-0.2581092241744875</v>
+        <v>-1.58491807464721</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -564,25 +567,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>-1.228339177673717</v>
+        <v>-12.62489618233083</v>
       </c>
       <c r="C5">
-        <v>2.291705392391212</v>
+        <v>2.498867349044278</v>
       </c>
       <c r="D5">
-        <v>-1.315186645652444</v>
+        <v>0.4288347376275889</v>
       </c>
       <c r="E5">
-        <v>-1.517449058573539</v>
+        <v>-0.554277721481464</v>
       </c>
       <c r="F5">
-        <v>0.5798349304998711</v>
+        <v>-2.067680054195791</v>
       </c>
       <c r="G5">
-        <v>0.002474916446533804</v>
+        <v>0.8270881714231106</v>
       </c>
       <c r="H5">
-        <v>0.08952975383526968</v>
+        <v>-0.2581092241744875</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -590,25 +593,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>2.699937846012982</v>
+        <v>-1.228339177673717</v>
       </c>
       <c r="C6">
-        <v>-1.06356360176605</v>
+        <v>2.291705392391212</v>
       </c>
       <c r="D6">
-        <v>-1.599355112396674</v>
+        <v>-1.315186645652444</v>
       </c>
       <c r="E6">
-        <v>0.6549269798811568</v>
+        <v>-1.517449058573539</v>
       </c>
       <c r="F6">
-        <v>0.1083820769602576</v>
+        <v>0.5798349304998711</v>
       </c>
       <c r="G6">
-        <v>0.1479463999939251</v>
+        <v>0.002474916446533804</v>
       </c>
       <c r="H6">
-        <v>-0.1030754650337201</v>
+        <v>0.08952975383526968</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -616,25 +619,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-1.169062813614865</v>
+        <v>2.699937846012982</v>
       </c>
       <c r="C7">
-        <v>-1.725460396362032</v>
+        <v>-1.06356360176605</v>
       </c>
       <c r="D7">
-        <v>0.8231750485143884</v>
+        <v>-1.599355112396674</v>
       </c>
       <c r="E7">
-        <v>0.1690461695641399</v>
+        <v>0.6549269798811568</v>
       </c>
       <c r="F7">
-        <v>0.159079239368558</v>
+        <v>0.1083820769602576</v>
       </c>
       <c r="G7">
-        <v>-0.04021271370678947</v>
+        <v>0.1479463999939251</v>
       </c>
       <c r="H7">
-        <v>0.7987820761829015</v>
+        <v>-0.1030754650337201</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -642,25 +645,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>-2.329901016209771</v>
+        <v>-1.169062813614865</v>
       </c>
       <c r="C8">
-        <v>0.758971671159695</v>
+        <v>-1.725460396362032</v>
       </c>
       <c r="D8">
-        <v>0.4605934776213567</v>
+        <v>0.8231750485143884</v>
       </c>
       <c r="E8">
-        <v>0.1213723632826244</v>
+        <v>0.1690461695641399</v>
       </c>
       <c r="F8">
-        <v>-0.04879673378025057</v>
+        <v>0.159079239368558</v>
       </c>
       <c r="G8">
-        <v>0.8825231537802698</v>
+        <v>-0.04021271370678947</v>
       </c>
       <c r="H8">
-        <v>0.7159462264959351</v>
+        <v>0.7987820761829015</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -668,25 +671,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6713308423207838</v>
+        <v>-2.329901016209771</v>
       </c>
       <c r="C9">
-        <v>0.4081742755916882</v>
+        <v>0.758971671159695</v>
       </c>
       <c r="D9">
-        <v>0.18001876026763</v>
+        <v>0.4605934776213567</v>
       </c>
       <c r="E9">
-        <v>-0.04386758844314925</v>
+        <v>0.1213723632826244</v>
       </c>
       <c r="F9">
-        <v>0.8714298707313746</v>
+        <v>-0.04879673378025057</v>
       </c>
       <c r="G9">
-        <v>0.7287129257210216</v>
+        <v>0.8825231537802698</v>
       </c>
       <c r="H9">
-        <v>0.3687093173527261</v>
+        <v>0.7159462264959351</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -694,25 +697,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4306022552246968</v>
+        <v>0.6713308423207838</v>
       </c>
       <c r="C10">
-        <v>0.1826222998300787</v>
+        <v>0.4081742755916882</v>
       </c>
       <c r="D10">
-        <v>-0.06593527409716449</v>
+        <v>0.18001876026763</v>
       </c>
       <c r="E10">
-        <v>0.8654478904270196</v>
+        <v>-0.04386758844314925</v>
       </c>
       <c r="F10">
-        <v>0.7233696755386105</v>
+        <v>0.8714298707313746</v>
       </c>
       <c r="G10">
-        <v>0.3583407839823598</v>
+        <v>0.7287129257210216</v>
       </c>
       <c r="H10">
-        <v>0.5233394059541168</v>
+        <v>0.3687093173527261</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -720,25 +723,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2040468712872988</v>
+        <v>0.4306022552246968</v>
       </c>
       <c r="C11">
-        <v>0.05424257470204791</v>
+        <v>0.1826222998300787</v>
       </c>
       <c r="D11">
-        <v>0.7762535460132365</v>
+        <v>-0.06593527409716449</v>
       </c>
       <c r="E11">
-        <v>0.6936426716900327</v>
+        <v>0.8654478904270196</v>
       </c>
       <c r="F11">
-        <v>0.3669669040122699</v>
+        <v>0.7233696755386105</v>
       </c>
       <c r="G11">
-        <v>0.4973992325286816</v>
+        <v>0.3583407839823598</v>
       </c>
       <c r="H11">
-        <v>0.6545429505182796</v>
+        <v>0.5233394059541168</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -746,25 +749,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01192194238165845</v>
+        <v>0.2040468712872988</v>
       </c>
       <c r="C12">
-        <v>0.7470490721575034</v>
+        <v>0.05424257470204791</v>
       </c>
       <c r="D12">
-        <v>0.6906220718851115</v>
+        <v>0.7762535460132365</v>
       </c>
       <c r="E12">
-        <v>0.3481056204007895</v>
+        <v>0.6936426716900327</v>
       </c>
       <c r="F12">
-        <v>0.4770681014634773</v>
+        <v>0.3669669040122699</v>
       </c>
       <c r="G12">
-        <v>0.6400127950840317</v>
+        <v>0.4973992325286816</v>
       </c>
       <c r="H12">
-        <v>0.1428622002996471</v>
+        <v>0.6545429505182796</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -772,25 +775,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>1.087246812775413</v>
+        <v>0.01192194238165845</v>
       </c>
       <c r="C13">
-        <v>0.7659931336690486</v>
+        <v>0.7470490721575034</v>
       </c>
       <c r="D13">
-        <v>0.1570123340877904</v>
+        <v>0.6906220718851115</v>
       </c>
       <c r="E13">
-        <v>0.5017620140502106</v>
+        <v>0.3481056204007895</v>
       </c>
       <c r="F13">
-        <v>0.6493921986403277</v>
+        <v>0.4770681014634773</v>
       </c>
       <c r="G13">
-        <v>0.08805140168825606</v>
+        <v>0.6400127950840317</v>
       </c>
       <c r="H13">
-        <v>0.4009192202646768</v>
+        <v>0.1428622002996471</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -798,25 +801,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>1.216688005659299</v>
+        <v>1.087246812775413</v>
       </c>
       <c r="C14">
-        <v>0.2041230363001488</v>
+        <v>0.7659931336690486</v>
       </c>
       <c r="D14">
-        <v>0.2614787832594023</v>
+        <v>0.1570123340877904</v>
       </c>
       <c r="E14">
-        <v>0.6853372797061905</v>
+        <v>0.5017620140502106</v>
       </c>
       <c r="F14">
-        <v>0.08600064424866319</v>
+        <v>0.6493921986403277</v>
       </c>
       <c r="G14">
-        <v>0.3243509808286466</v>
+        <v>0.08805140168825606</v>
       </c>
       <c r="H14">
-        <v>0.2060699433524077</v>
+        <v>0.4009192202646768</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -824,25 +827,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5164486232236872</v>
+        <v>1.216688005659299</v>
       </c>
       <c r="C15">
-        <v>0.3947675229949266</v>
+        <v>0.2041230363001488</v>
       </c>
       <c r="D15">
-        <v>0.506258857889999</v>
+        <v>0.2614787832594023</v>
       </c>
       <c r="E15">
-        <v>0.1141948830192304</v>
+        <v>0.6853372797061905</v>
       </c>
       <c r="F15">
-        <v>0.3603762920210401</v>
+        <v>0.08600064424866319</v>
       </c>
       <c r="G15">
-        <v>0.1685283731481941</v>
+        <v>0.3243509808286466</v>
       </c>
       <c r="H15">
-        <v>0.4945038434164454</v>
+        <v>0.2060699433524077</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -850,117 +853,143 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6303580141027678</v>
+        <v>0.5164486232236872</v>
       </c>
       <c r="C16">
-        <v>0.5909375987643086</v>
+        <v>0.3947675229949266</v>
       </c>
       <c r="D16">
-        <v>-0.03140548361448672</v>
+        <v>0.506258857889999</v>
       </c>
       <c r="E16">
-        <v>0.3703300348802827</v>
+        <v>0.1141948830192304</v>
       </c>
       <c r="F16">
-        <v>0.183893542847739</v>
+        <v>0.3603762920210401</v>
       </c>
       <c r="G16">
-        <v>0.4556555084590223</v>
+        <v>0.1685283731481941</v>
       </c>
       <c r="H16">
-        <v>-0.1363049313708975</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.4945038434164454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.9019617852456914</v>
+        <v>0.6303580141027678</v>
       </c>
       <c r="C17">
-        <v>0.08568329079670847</v>
+        <v>0.5909375987643086</v>
       </c>
       <c r="D17">
-        <v>0.2078658934307159</v>
+        <v>-0.03140548361448672</v>
       </c>
       <c r="E17">
-        <v>0.2128524933129406</v>
+        <v>0.3703300348802827</v>
       </c>
       <c r="F17">
-        <v>0.4913983809139259</v>
+        <v>0.183893542847739</v>
       </c>
       <c r="G17">
-        <v>-0.1676325777545246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.4556555084590223</v>
+      </c>
+      <c r="H17">
+        <v>-0.1363049313708975</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3325084682008229</v>
+        <v>0.9019617852456914</v>
       </c>
       <c r="C18">
-        <v>0.2255217609686054</v>
+        <v>0.08568329079670847</v>
       </c>
       <c r="D18">
-        <v>0.1182302542019461</v>
+        <v>0.2078658934307159</v>
       </c>
       <c r="E18">
-        <v>0.5236157691624059</v>
+        <v>0.2128524933129406</v>
       </c>
       <c r="F18">
-        <v>-0.1552444519268073</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.4913983809139259</v>
+      </c>
+      <c r="G18">
+        <v>-0.1676325777545246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4651981203848173</v>
+        <v>0.3325084682008229</v>
       </c>
       <c r="C19">
-        <v>0.2032544976711596</v>
+        <v>0.2255217609686054</v>
       </c>
       <c r="D19">
-        <v>0.4071311908043919</v>
+        <v>0.1182302542019461</v>
       </c>
       <c r="E19">
-        <v>-0.1401391802749548</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.5236157691624059</v>
+      </c>
+      <c r="F19">
+        <v>-0.1552444519268073</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3681145747052469</v>
+        <v>0.4651981203848173</v>
       </c>
       <c r="C20">
-        <v>0.4206684630523081</v>
+        <v>0.2032544976711596</v>
       </c>
       <c r="D20">
-        <v>-0.2031120992649178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.4071311908043919</v>
+      </c>
+      <c r="E20">
+        <v>-0.1401391802749548</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6745175049177161</v>
+        <v>0.3681145747052469</v>
       </c>
       <c r="C21">
-        <v>-0.1037940490828814</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.4206684630523081</v>
+      </c>
+      <c r="D21">
+        <v>-0.2031120992649178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
+        <v>0.6745175049177161</v>
+      </c>
+      <c r="C22">
+        <v>-0.1037940490828814</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
         <v>-0.0597343578434324</v>
       </c>
     </row>
